--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_egy.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_egy.xlsx
@@ -1336,7 +1336,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
@@ -2461,7 +2461,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -2763,7 +2763,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
@@ -3065,7 +3065,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
@@ -4779,7 +4779,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="3:4">
       <c r="C1" s="1" t="s">
@@ -6228,7 +6228,7 @@
         <v>0.011625168888</v>
       </c>
       <c r="D104">
-        <v>0.006153453336</v>
+        <v>0.009860352936</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6326,7 +6326,7 @@
         <v>0.011352910284</v>
       </c>
       <c r="D111">
-        <v>0.005991724848</v>
+        <v>0.009601197648</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6424,7 +6424,7 @@
         <v>0.01108065168</v>
       </c>
       <c r="D118">
-        <v>0.00582999636</v>
+        <v>0.00934204236</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6522,7 +6522,7 @@
         <v>0.010737962892</v>
       </c>
       <c r="D125">
-        <v>0.00565313332</v>
+        <v>0.00905863532</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6620,7 +6620,7 @@
         <v>0.010395274104</v>
       </c>
       <c r="D132">
-        <v>0.00547627028</v>
+        <v>0.00877522828</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6718,7 +6718,7 @@
         <v>0.010052585316</v>
       </c>
       <c r="D139">
-        <v>0.00529940724</v>
+        <v>0.00849182124</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6816,7 +6816,7 @@
         <v>0.009709896528</v>
       </c>
       <c r="D146">
-        <v>0.0051225442</v>
+        <v>0.0082084142</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>0.00936720774</v>
       </c>
       <c r="D153">
-        <v>0.00494568116</v>
+        <v>0.00792500716</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7012,7 +7012,7 @@
         <v>0.0089789274</v>
       </c>
       <c r="D160">
-        <v>0.004780357444</v>
+        <v>0.007660090844</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7110,7 +7110,7 @@
         <v>0.00859064706</v>
       </c>
       <c r="D167">
-        <v>0.004615033728</v>
+        <v>0.007395174528</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>0.00836319744</v>
       </c>
       <c r="D174">
-        <v>0.007666367852</v>
+        <v>0.006915814356</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7306,7 +7306,7 @@
         <v>0.00796730376</v>
       </c>
       <c r="D181">
-        <v>0.007381533016</v>
+        <v>0.006658865448</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>0.00757141008</v>
       </c>
       <c r="D188">
-        <v>0.00709669818</v>
+        <v>0.00640191654</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -7502,7 +7502,7 @@
         <v>0.007348513536</v>
       </c>
       <c r="D195">
-        <v>0.006903558948</v>
+        <v>0.006227686044</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7600,7 +7600,7 @@
         <v>0.007125616992</v>
       </c>
       <c r="D202">
-        <v>0.006710419716</v>
+        <v>0.006053455548</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7698,7 +7698,7 @@
         <v>0.006902720448</v>
       </c>
       <c r="D209">
-        <v>0.006517280484</v>
+        <v>0.005879225052</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7796,7 +7796,7 @@
         <v>0.006679823904</v>
       </c>
       <c r="D216">
-        <v>0.006324141252</v>
+        <v>0.005704994556</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7894,7 +7894,7 @@
         <v>0.00645692736</v>
       </c>
       <c r="D223">
-        <v>0.00613100202</v>
+        <v>0.00553076406</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7992,7 +7992,7 @@
         <v>0.006290745552</v>
       </c>
       <c r="D230">
-        <v>0.005950672728</v>
+        <v>0.005368089384</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>0.006124563744</v>
       </c>
       <c r="D237">
-        <v>0.005770343436</v>
+        <v>0.005205414708</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8188,7 +8188,7 @@
         <v>0.006645887544</v>
       </c>
       <c r="D244">
-        <v>0.00605910624</v>
+        <v>0.005238195072</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8286,7 +8286,7 @@
         <v>0.006460530912</v>
       </c>
       <c r="D251">
-        <v>0.00586364442</v>
+        <v>0.005069215176</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8384,7 +8384,7 @@
         <v>0.00627517428</v>
       </c>
       <c r="D258">
-        <v>0.0056681826</v>
+        <v>0.00490023528</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -8482,7 +8482,7 @@
         <v>0.006030598488</v>
       </c>
       <c r="D265">
-        <v>0.0054704398</v>
+        <v>0.00472928344</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8580,7 +8580,7 @@
         <v>0.005786022696</v>
       </c>
       <c r="D272">
-        <v>0.005272697</v>
+        <v>0.0045583316</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -8678,7 +8678,7 @@
         <v>0.005541446904</v>
       </c>
       <c r="D279">
-        <v>0.0050749542</v>
+        <v>0.00438737976</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8776,7 +8776,7 @@
         <v>0.005296871112</v>
       </c>
       <c r="D286">
-        <v>0.0048772114</v>
+        <v>0.00421642792</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8874,7 +8874,7 @@
         <v>0.00505229532</v>
       </c>
       <c r="D293">
-        <v>0.0046794686</v>
+        <v>0.00404547608</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>0.004765998504</v>
       </c>
       <c r="D300">
-        <v>0.00443851986</v>
+        <v>0.003837172008</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9070,7 +9070,7 @@
         <v>0.004479701688</v>
       </c>
       <c r="D307">
-        <v>0.00419757112</v>
+        <v>0.003628867936</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -9168,7 +9168,7 @@
         <v>0.004193404872</v>
       </c>
       <c r="D314">
-        <v>0.00395662238</v>
+        <v>0.003420563864</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -9256,7 +9256,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9272,7 +9272,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="4:5">
       <c r="D1" t="s">

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_egy.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_egy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="123">
   <si>
     <t>male</t>
   </si>
@@ -4909,7 +4909,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.0426580069923</v>
+        <v>0.0426580069922999</v>
       </c>
       <c r="D10">
         <v>0.0515888960758159</v>
@@ -5119,7 +5119,7 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>0.0409819192245</v>
+        <v>0.0409819192244999</v>
       </c>
       <c r="D25">
         <v>0.0501467798459999</v>
@@ -9250,14 +9250,210 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1.35450501543214</v>
+      </c>
+      <c r="C2">
+        <v>1.2854101799124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1.3471360470542</v>
+      </c>
+      <c r="C3">
+        <v>1.27720069906436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1.28910228896852</v>
+      </c>
+      <c r="C4">
+        <v>1.22257034104254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1.23106853088284</v>
+      </c>
+      <c r="C5">
+        <v>1.16793998302072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1.17303477279716</v>
+      </c>
+      <c r="C6">
+        <v>1.1133096249989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.11500101471148</v>
+      </c>
+      <c r="C7">
+        <v>1.05867926697708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1.0090941968288</v>
+      </c>
+      <c r="C8">
+        <v>0.94635732204852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.98844046300896</v>
+      </c>
+      <c r="C9">
+        <v>0.92730304098396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.96778672918912</v>
+      </c>
+      <c r="C10">
+        <v>0.9082487599194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.731669430135992</v>
+      </c>
+      <c r="C11">
+        <v>0.67935702168538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.715714220331216</v>
+      </c>
+      <c r="C12">
+        <v>0.66479928438246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.69975901052644</v>
+      </c>
+      <c r="C13">
+        <v>0.65024154707954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.338019695363148</v>
+      </c>
+      <c r="C14">
+        <v>0.334515059293784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.335517153359656</v>
+      </c>
+      <c r="C15">
+        <v>0.332603630841872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.333014611356163</v>
+      </c>
+      <c r="C16">
+        <v>0.33069220238996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.330512069352671</v>
+      </c>
+      <c r="C17">
+        <v>0.328780773938047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.328009527349178</v>
+      </c>
+      <c r="C18">
+        <v>0.326869345486135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
